--- a/Schema1.xlsx
+++ b/Schema1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Rutger\Assignment\07-SQL\Pewlett-Hackard-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C74EA0-C774-4DA7-8EE4-528FAFF6D045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC3575-9D33-4022-A793-84611870F9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{33819E68-78C3-4135-A715-691AC08A2936}"/>
   </bookViews>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,25 +473,25 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">

--- a/Schema1.xlsx
+++ b/Schema1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Rutger\Assignment\07-SQL\Pewlett-Hackard-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC3575-9D33-4022-A793-84611870F9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B9EC5-FA45-4443-9E36-A8600CD97071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{33819E68-78C3-4135-A715-691AC08A2936}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{33819E68-78C3-4135-A715-691AC08A2936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>dept_emp</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867E7503-4354-4409-9FB7-92A5E3DE1B3E}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,6 +585,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
